--- a/clarified points/Clarify_18012024.xlsx
+++ b/clarified points/Clarify_18012024.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Trade_Finance\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\trade_finance\clarified points\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7EF70A1-3B72-4303-81A4-37E345582B19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DFA2E3D-4327-4264-8AF7-B2907D06684B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{BD06BF98-9ED6-404B-8AE7-E0A46A93EDDA}"/>
   </bookViews>
@@ -16,9 +16,9 @@
     <sheet name="Clarify" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Clarify!$A$1:$H$64</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Clarify!$F$1:$F$64</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1172,16 +1172,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DFAFCDD-1DBF-439A-AB7A-5160CB6983EB}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:H64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="5" max="5" width="14.5703125" customWidth="1"/>
-    <col min="8" max="8" width="74.5703125" customWidth="1"/>
+    <col min="8" max="8" width="95.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -1210,7 +1211,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="40.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
         <v>339</v>
       </c>
@@ -1236,7 +1237,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="67.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="67.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="15">
         <v>370</v>
       </c>
@@ -1262,7 +1263,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="40.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="15">
         <v>412</v>
       </c>
@@ -1288,7 +1289,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="40.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>413</v>
       </c>
@@ -1314,7 +1315,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="94.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="15">
         <v>448</v>
       </c>
@@ -1340,7 +1341,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="67.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="67.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="17">
         <v>449</v>
       </c>
@@ -1366,7 +1367,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="391.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="351" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>489</v>
       </c>
@@ -1470,7 +1471,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="54" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <v>493</v>
       </c>
@@ -1496,7 +1497,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="270" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="256.5" x14ac:dyDescent="0.25">
       <c r="A13" s="15">
         <v>494</v>
       </c>
@@ -1548,7 +1549,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="81" x14ac:dyDescent="0.25">
       <c r="A15" s="15">
         <v>496</v>
       </c>
@@ -1574,7 +1575,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="121.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="108" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
         <v>497</v>
       </c>
@@ -1652,7 +1653,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="54" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A19" s="15">
         <v>500</v>
       </c>
@@ -1678,7 +1679,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" ht="40.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="15">
         <v>504</v>
       </c>
@@ -1704,7 +1705,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" ht="40.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="7">
         <v>509</v>
       </c>
@@ -1730,7 +1731,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="40.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="7">
         <v>511</v>
       </c>
@@ -1756,7 +1757,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" ht="40.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="15">
         <v>574</v>
       </c>
@@ -1782,7 +1783,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" ht="40.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="7">
         <v>913</v>
       </c>
@@ -1808,7 +1809,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" ht="40.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="7">
         <v>1179</v>
       </c>
@@ -1834,7 +1835,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" ht="40.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="28">
         <v>1186</v>
       </c>
@@ -1860,7 +1861,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" ht="40.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="7">
         <v>1187</v>
       </c>
@@ -1886,7 +1887,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="54" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" ht="54" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="15">
         <v>1270</v>
       </c>
@@ -1912,7 +1913,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="54" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" ht="54" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="7">
         <v>1271</v>
       </c>
@@ -1938,7 +1939,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="67.5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" ht="67.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="15">
         <v>1272</v>
       </c>
@@ -1964,7 +1965,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="54" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" ht="54" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="7">
         <v>1273</v>
       </c>
@@ -1990,7 +1991,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="54" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" ht="54" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="15">
         <v>1274</v>
       </c>
@@ -2016,7 +2017,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" ht="40.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="15">
         <v>1618</v>
       </c>
@@ -2042,7 +2043,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" ht="40.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="7">
         <v>1625</v>
       </c>
@@ -2068,7 +2069,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" ht="40.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="15">
         <v>1626</v>
       </c>
@@ -2094,7 +2095,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" ht="40.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="7">
         <v>1627</v>
       </c>
@@ -2120,7 +2121,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" ht="40.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="15">
         <v>1628</v>
       </c>
@@ -2146,7 +2147,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" ht="40.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="7">
         <v>1629</v>
       </c>
@@ -2172,7 +2173,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" ht="40.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="15">
         <v>1630</v>
       </c>
@@ -2198,7 +2199,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" ht="40.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="7">
         <v>1631</v>
       </c>
@@ -2224,7 +2225,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" ht="40.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="15">
         <v>1632</v>
       </c>
@@ -2250,7 +2251,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" ht="40.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="7">
         <v>1633</v>
       </c>
@@ -2276,7 +2277,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" ht="40.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="7">
         <v>1637</v>
       </c>
@@ -2302,7 +2303,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" ht="40.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="15">
         <v>1638</v>
       </c>
@@ -2328,7 +2329,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" ht="40.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="7">
         <v>1639</v>
       </c>
@@ -2354,7 +2355,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" ht="40.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="15">
         <v>1640</v>
       </c>
@@ -2380,7 +2381,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" ht="40.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="7">
         <v>1641</v>
       </c>
@@ -2406,7 +2407,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" ht="40.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="15">
         <v>1642</v>
       </c>
@@ -2432,7 +2433,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" ht="40.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="7">
         <v>1655</v>
       </c>
@@ -2458,7 +2459,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" ht="40.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="15">
         <v>1656</v>
       </c>
@@ -2484,7 +2485,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" ht="40.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="7">
         <v>1657</v>
       </c>
@@ -2510,7 +2511,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" ht="40.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="15">
         <v>1658</v>
       </c>
@@ -2536,7 +2537,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" ht="40.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="7">
         <v>1659</v>
       </c>
@@ -2562,7 +2563,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" ht="40.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="15">
         <v>1660</v>
       </c>
@@ -2588,7 +2589,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" ht="40.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="7">
         <v>1661</v>
       </c>
@@ -2614,7 +2615,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" ht="27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="7">
         <v>1851</v>
       </c>
@@ -2640,7 +2641,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" ht="40.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="28">
         <v>3088</v>
       </c>
@@ -2666,7 +2667,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" ht="409.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="15">
         <v>3106</v>
       </c>
@@ -2692,7 +2693,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" ht="409.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="15">
         <v>3103</v>
       </c>
@@ -2718,7 +2719,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="54" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" ht="54" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="15">
         <v>3104</v>
       </c>
@@ -2744,7 +2745,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" ht="40.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="15">
         <v>3112</v>
       </c>
@@ -2770,7 +2771,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" ht="40.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="15">
         <v>3131</v>
       </c>
@@ -2796,7 +2797,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="63" spans="1:8" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" ht="27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="15">
         <v>3155</v>
       </c>
@@ -2822,7 +2823,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" ht="40.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="15">
         <v>3274</v>
       </c>
@@ -2849,6 +2850,13 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="F1:F64" xr:uid="{3DFAFCDD-1DBF-439A-AB7A-5160CB6983EB}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="Export Undertaking"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <conditionalFormatting sqref="H2:H23">
     <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
